--- a/learnings-stuff/FINAL450.xlsx
+++ b/learnings-stuff/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Brave Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\100DaysCode-DSA\learnings-stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B09E24-955C-493B-BC8F-F03C41A2EDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F189E2-6B1E-46CB-A589-36E1754F3C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="464">
   <si>
     <t>Topic:</t>
   </si>
@@ -1420,6 +1420,9 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>&lt;yes&gt;</t>
   </si>
 </sst>
 </file>
@@ -1841,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1876,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -1887,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -1898,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
